--- a/app/resource/xlsx/major_proposal_template_2_stage2.xlsx
+++ b/app/resource/xlsx/major_proposal_template_2_stage2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Bridge_Excel_Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\00-Template-Do Not Modify\00-Bridge template\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179964E4-4CF2-4386-88C3-664C52DCCBF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE36709-24FA-4C83-931A-445AD91C48E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9F1EA209-DB64-4862-B5BC-AB2E13480384}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9F1EA209-DB64-4862-B5BC-AB2E13480384}"/>
   </bookViews>
   <sheets>
     <sheet name="Fee Proposal" sheetId="11" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="287">
   <si>
     <t>Mechanical Design Certificate</t>
   </si>
@@ -994,9 +994,6 @@
     <t>ATT:</t>
   </si>
   <si>
-    <t>SERVICES</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -1007,6 +1004,12 @@
   </si>
   <si>
     <t>TOTAL (include GST)</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>Email:</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1024,7 @@
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="167" formatCode="[$-C09]dd\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1228,22 +1231,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1253,6 +1240,14 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2061,10 +2056,10 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="44" fontId="32" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="30" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2077,19 +2072,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="16" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2113,9 +2108,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2128,8 +2120,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2137,23 +2132,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3775,8 +3770,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A27:Y361"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A266" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="F272" sqref="F272:G273"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A294" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="B297" sqref="B297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3793,68 +3788,86 @@
     <col min="19" max="19" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="27" spans="2:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B27" s="134"/>
-      <c r="C27" s="134"/>
-      <c r="D27" s="134"/>
-      <c r="E27" s="134"/>
-      <c r="F27" s="134"/>
-      <c r="G27" s="134"/>
-      <c r="H27" s="134"/>
+    <row r="27" spans="2:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="139"/>
+      <c r="C27" s="139"/>
+      <c r="D27" s="139"/>
+      <c r="E27" s="139"/>
+      <c r="F27" s="139"/>
+      <c r="G27" s="139"/>
+      <c r="H27" s="139"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="139"/>
+      <c r="C28" s="139"/>
+      <c r="D28" s="139"/>
+      <c r="E28" s="139"/>
+      <c r="F28" s="139"/>
+      <c r="G28" s="139"/>
+      <c r="H28" s="139"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="139"/>
+      <c r="C29" s="139"/>
+      <c r="D29" s="139"/>
+      <c r="E29" s="139"/>
+      <c r="F29" s="139"/>
+      <c r="G29" s="139"/>
+      <c r="H29" s="139"/>
     </row>
     <row r="31" spans="2:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C31" s="136"/>
-      <c r="D31" s="136"/>
-      <c r="E31" s="136"/>
-      <c r="F31" s="136"/>
-      <c r="G31" s="136"/>
+      <c r="C31" s="135"/>
+      <c r="D31" s="135"/>
+      <c r="E31" s="135"/>
+      <c r="F31" s="135"/>
+      <c r="G31" s="135"/>
     </row>
     <row r="37" spans="1:16" ht="21" x14ac:dyDescent="0.35">
       <c r="A37" s="117" t="s">
         <v>228</v>
       </c>
-      <c r="F37" s="139" t="s">
+      <c r="F37" s="138" t="s">
         <v>231</v>
       </c>
-      <c r="G37" s="139"/>
-      <c r="H37" s="139"/>
-      <c r="I37" s="139"/>
+      <c r="G37" s="138"/>
+      <c r="H37" s="138"/>
+      <c r="I37" s="138"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F38" s="138" t="s">
+      <c r="F38" s="137" t="s">
         <v>67</v>
       </c>
-      <c r="G38" s="138"/>
-      <c r="H38" s="138"/>
-      <c r="I38" s="138"/>
+      <c r="G38" s="137"/>
+      <c r="H38" s="137"/>
+      <c r="I38" s="137"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="35"/>
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
-      <c r="F39" s="138" t="s">
+      <c r="F39" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="G39" s="138"/>
-      <c r="H39" s="138"/>
-      <c r="I39" s="138"/>
+      <c r="G39" s="137"/>
+      <c r="H39" s="137"/>
+      <c r="I39" s="137"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F40" s="138" t="s">
+      <c r="F40" s="137" t="s">
         <v>229</v>
       </c>
-      <c r="G40" s="138"/>
-      <c r="H40" s="138"/>
-      <c r="I40" s="138"/>
+      <c r="G40" s="137"/>
+      <c r="H40" s="137"/>
+      <c r="I40" s="137"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F41" s="138" t="s">
+      <c r="F41" s="137" t="s">
         <v>230</v>
       </c>
-      <c r="G41" s="138"/>
-      <c r="H41" s="138"/>
-      <c r="I41" s="138"/>
+      <c r="G41" s="137"/>
+      <c r="H41" s="137"/>
+      <c r="I41" s="137"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
@@ -3862,10 +3875,10 @@
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="137"/>
-      <c r="B43" s="137"/>
-      <c r="C43" s="137"/>
-      <c r="D43" s="137"/>
+      <c r="A43" s="136"/>
+      <c r="B43" s="136"/>
+      <c r="C43" s="136"/>
+      <c r="D43" s="136"/>
       <c r="I43" s="33" t="s">
         <v>242</v>
       </c>
@@ -3891,8 +3904,8 @@
       <c r="G46" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="H46" s="143"/>
-      <c r="I46" s="143"/>
+      <c r="H46" s="142"/>
+      <c r="I46" s="142"/>
       <c r="K46" s="131"/>
       <c r="L46" s="131"/>
       <c r="M46" s="40"/>
@@ -3957,15 +3970,15 @@
       <c r="P50" s="39"/>
     </row>
     <row r="51" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="145"/>
-      <c r="B51" s="145"/>
-      <c r="C51" s="145"/>
-      <c r="D51" s="145"/>
-      <c r="E51" s="145"/>
-      <c r="F51" s="145"/>
-      <c r="G51" s="145"/>
-      <c r="H51" s="145"/>
-      <c r="I51" s="145"/>
+      <c r="A51" s="144"/>
+      <c r="B51" s="144"/>
+      <c r="C51" s="144"/>
+      <c r="D51" s="144"/>
+      <c r="E51" s="144"/>
+      <c r="F51" s="144"/>
+      <c r="G51" s="144"/>
+      <c r="H51" s="144"/>
+      <c r="I51" s="144"/>
       <c r="K51" s="44"/>
       <c r="L51" s="11"/>
       <c r="M51" s="11"/>
@@ -3990,26 +4003,26 @@
       <c r="P52" s="36"/>
     </row>
     <row r="53" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="135"/>
-      <c r="B53" s="135"/>
-      <c r="C53" s="135"/>
-      <c r="D53" s="135"/>
-      <c r="E53" s="135"/>
-      <c r="F53" s="135"/>
-      <c r="G53" s="135"/>
-      <c r="H53" s="135"/>
-      <c r="I53" s="135"/>
+      <c r="A53" s="134"/>
+      <c r="B53" s="134"/>
+      <c r="C53" s="134"/>
+      <c r="D53" s="134"/>
+      <c r="E53" s="134"/>
+      <c r="F53" s="134"/>
+      <c r="G53" s="134"/>
+      <c r="H53" s="134"/>
+      <c r="I53" s="134"/>
     </row>
     <row r="54" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="135"/>
-      <c r="B54" s="135"/>
-      <c r="C54" s="135"/>
-      <c r="D54" s="135"/>
-      <c r="E54" s="135"/>
-      <c r="F54" s="135"/>
-      <c r="G54" s="135"/>
-      <c r="H54" s="135"/>
-      <c r="I54" s="135"/>
+      <c r="A54" s="134"/>
+      <c r="B54" s="134"/>
+      <c r="C54" s="134"/>
+      <c r="D54" s="134"/>
+      <c r="E54" s="134"/>
+      <c r="F54" s="134"/>
+      <c r="G54" s="134"/>
+      <c r="H54" s="134"/>
+      <c r="I54" s="134"/>
       <c r="J54" s="29"/>
       <c r="K54" s="29"/>
       <c r="L54" s="29"/>
@@ -4017,93 +4030,93 @@
       <c r="N54" s="29"/>
       <c r="O54" s="29"/>
       <c r="P54" s="29"/>
-      <c r="Q54" s="144"/>
-      <c r="R54" s="144"/>
-      <c r="S54" s="144"/>
-      <c r="T54" s="144"/>
-      <c r="U54" s="144"/>
-      <c r="V54" s="144"/>
-      <c r="W54" s="144"/>
-      <c r="X54" s="144"/>
+      <c r="Q54" s="143"/>
+      <c r="R54" s="143"/>
+      <c r="S54" s="143"/>
+      <c r="T54" s="143"/>
+      <c r="U54" s="143"/>
+      <c r="V54" s="143"/>
+      <c r="W54" s="143"/>
+      <c r="X54" s="143"/>
     </row>
     <row r="55" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="56" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="135" t="s">
+      <c r="A56" s="134" t="s">
         <v>243</v>
       </c>
-      <c r="B56" s="135"/>
-      <c r="C56" s="135"/>
-      <c r="D56" s="135"/>
-      <c r="E56" s="135"/>
-      <c r="F56" s="135"/>
-      <c r="G56" s="135"/>
-      <c r="H56" s="135"/>
-      <c r="I56" s="135"/>
-      <c r="M56" s="142"/>
-      <c r="N56" s="142"/>
-      <c r="O56" s="142"/>
-      <c r="P56" s="142"/>
-      <c r="Q56" s="142"/>
-      <c r="R56" s="142"/>
-      <c r="S56" s="142"/>
-      <c r="T56" s="142"/>
+      <c r="B56" s="134"/>
+      <c r="C56" s="134"/>
+      <c r="D56" s="134"/>
+      <c r="E56" s="134"/>
+      <c r="F56" s="134"/>
+      <c r="G56" s="134"/>
+      <c r="H56" s="134"/>
+      <c r="I56" s="134"/>
+      <c r="M56" s="147"/>
+      <c r="N56" s="147"/>
+      <c r="O56" s="147"/>
+      <c r="P56" s="147"/>
+      <c r="Q56" s="147"/>
+      <c r="R56" s="147"/>
+      <c r="S56" s="147"/>
+      <c r="T56" s="147"/>
     </row>
     <row r="57" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="135"/>
-      <c r="B57" s="135"/>
-      <c r="C57" s="135"/>
-      <c r="D57" s="135"/>
-      <c r="E57" s="135"/>
-      <c r="F57" s="135"/>
-      <c r="G57" s="135"/>
-      <c r="H57" s="135"/>
-      <c r="I57" s="135"/>
-      <c r="M57" s="142"/>
-      <c r="N57" s="142"/>
-      <c r="O57" s="142"/>
-      <c r="P57" s="142"/>
-      <c r="Q57" s="142"/>
-      <c r="R57" s="142"/>
-      <c r="S57" s="142"/>
-      <c r="T57" s="142"/>
+      <c r="A57" s="134"/>
+      <c r="B57" s="134"/>
+      <c r="C57" s="134"/>
+      <c r="D57" s="134"/>
+      <c r="E57" s="134"/>
+      <c r="F57" s="134"/>
+      <c r="G57" s="134"/>
+      <c r="H57" s="134"/>
+      <c r="I57" s="134"/>
+      <c r="M57" s="147"/>
+      <c r="N57" s="147"/>
+      <c r="O57" s="147"/>
+      <c r="P57" s="147"/>
+      <c r="Q57" s="147"/>
+      <c r="R57" s="147"/>
+      <c r="S57" s="147"/>
+      <c r="T57" s="147"/>
     </row>
     <row r="58" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="135"/>
-      <c r="B58" s="135"/>
-      <c r="C58" s="135"/>
-      <c r="D58" s="135"/>
-      <c r="E58" s="135"/>
-      <c r="F58" s="135"/>
-      <c r="G58" s="135"/>
-      <c r="H58" s="135"/>
-      <c r="I58" s="135"/>
-      <c r="M58" s="142"/>
-      <c r="N58" s="142"/>
-      <c r="O58" s="142"/>
-      <c r="P58" s="142"/>
-      <c r="Q58" s="142"/>
-      <c r="R58" s="142"/>
-      <c r="S58" s="142"/>
-      <c r="T58" s="142"/>
+      <c r="A58" s="134"/>
+      <c r="B58" s="134"/>
+      <c r="C58" s="134"/>
+      <c r="D58" s="134"/>
+      <c r="E58" s="134"/>
+      <c r="F58" s="134"/>
+      <c r="G58" s="134"/>
+      <c r="H58" s="134"/>
+      <c r="I58" s="134"/>
+      <c r="M58" s="147"/>
+      <c r="N58" s="147"/>
+      <c r="O58" s="147"/>
+      <c r="P58" s="147"/>
+      <c r="Q58" s="147"/>
+      <c r="R58" s="147"/>
+      <c r="S58" s="147"/>
+      <c r="T58" s="147"/>
     </row>
     <row r="59" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="135"/>
-      <c r="B59" s="135"/>
-      <c r="C59" s="135"/>
-      <c r="D59" s="135"/>
-      <c r="E59" s="135"/>
-      <c r="F59" s="135"/>
-      <c r="G59" s="135"/>
-      <c r="H59" s="135"/>
-      <c r="I59" s="135"/>
-      <c r="M59" s="142"/>
-      <c r="N59" s="142"/>
-      <c r="O59" s="142"/>
-      <c r="P59" s="142"/>
-      <c r="Q59" s="142"/>
-      <c r="R59" s="142"/>
-      <c r="S59" s="142"/>
-      <c r="T59" s="142"/>
+      <c r="A59" s="134"/>
+      <c r="B59" s="134"/>
+      <c r="C59" s="134"/>
+      <c r="D59" s="134"/>
+      <c r="E59" s="134"/>
+      <c r="F59" s="134"/>
+      <c r="G59" s="134"/>
+      <c r="H59" s="134"/>
+      <c r="I59" s="134"/>
+      <c r="M59" s="147"/>
+      <c r="N59" s="147"/>
+      <c r="O59" s="147"/>
+      <c r="P59" s="147"/>
+      <c r="Q59" s="147"/>
+      <c r="R59" s="147"/>
+      <c r="S59" s="147"/>
+      <c r="T59" s="147"/>
     </row>
     <row r="60" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="16"/>
@@ -4121,30 +4134,30 @@
       <c r="P60" s="42"/>
     </row>
     <row r="61" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="135" t="s">
+      <c r="A61" s="134" t="s">
         <v>244</v>
       </c>
-      <c r="B61" s="135"/>
-      <c r="C61" s="135"/>
-      <c r="D61" s="135"/>
-      <c r="E61" s="135"/>
-      <c r="F61" s="135"/>
-      <c r="G61" s="135"/>
-      <c r="H61" s="135"/>
-      <c r="I61" s="135"/>
+      <c r="B61" s="134"/>
+      <c r="C61" s="134"/>
+      <c r="D61" s="134"/>
+      <c r="E61" s="134"/>
+      <c r="F61" s="134"/>
+      <c r="G61" s="134"/>
+      <c r="H61" s="134"/>
+      <c r="I61" s="134"/>
       <c r="K61" s="11"/>
       <c r="L61" s="11"/>
     </row>
     <row r="62" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="135"/>
-      <c r="B62" s="135"/>
-      <c r="C62" s="135"/>
-      <c r="D62" s="135"/>
-      <c r="E62" s="135"/>
-      <c r="F62" s="135"/>
-      <c r="G62" s="135"/>
-      <c r="H62" s="135"/>
-      <c r="I62" s="135"/>
+      <c r="A62" s="134"/>
+      <c r="B62" s="134"/>
+      <c r="C62" s="134"/>
+      <c r="D62" s="134"/>
+      <c r="E62" s="134"/>
+      <c r="F62" s="134"/>
+      <c r="G62" s="134"/>
+      <c r="H62" s="134"/>
+      <c r="I62" s="134"/>
       <c r="K62" s="35"/>
       <c r="M62" s="35"/>
       <c r="R62" s="35"/>
@@ -4156,16 +4169,16 @@
         <f t="shared" ref="A63:A66" si="0">IF(B63&lt;&gt;"","•","")</f>
         <v>•</v>
       </c>
-      <c r="B63" s="135" t="s">
+      <c r="B63" s="134" t="s">
         <v>275</v>
       </c>
-      <c r="C63" s="135"/>
-      <c r="D63" s="135"/>
-      <c r="E63" s="135"/>
-      <c r="F63" s="135"/>
-      <c r="G63" s="135"/>
-      <c r="H63" s="135"/>
-      <c r="I63" s="135"/>
+      <c r="C63" s="134"/>
+      <c r="D63" s="134"/>
+      <c r="E63" s="134"/>
+      <c r="F63" s="134"/>
+      <c r="G63" s="134"/>
+      <c r="H63" s="134"/>
+      <c r="I63" s="134"/>
       <c r="U63" s="47"/>
       <c r="V63" s="47"/>
       <c r="W63" s="48"/>
@@ -4175,32 +4188,32 @@
         <f t="shared" si="0"/>
         <v>•</v>
       </c>
-      <c r="B64" s="135" t="s">
+      <c r="B64" s="134" t="s">
         <v>246</v>
       </c>
-      <c r="C64" s="135"/>
-      <c r="D64" s="135"/>
-      <c r="E64" s="135"/>
-      <c r="F64" s="135"/>
-      <c r="G64" s="135"/>
-      <c r="H64" s="135"/>
-      <c r="I64" s="135"/>
+      <c r="C64" s="134"/>
+      <c r="D64" s="134"/>
+      <c r="E64" s="134"/>
+      <c r="F64" s="134"/>
+      <c r="G64" s="134"/>
+      <c r="H64" s="134"/>
+      <c r="I64" s="134"/>
     </row>
     <row r="65" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="31" t="str">
         <f t="shared" si="0"/>
         <v>•</v>
       </c>
-      <c r="B65" s="135" t="s">
+      <c r="B65" s="134" t="s">
         <v>247</v>
       </c>
-      <c r="C65" s="135"/>
-      <c r="D65" s="135"/>
-      <c r="E65" s="135"/>
-      <c r="F65" s="135"/>
-      <c r="G65" s="135"/>
-      <c r="H65" s="135"/>
-      <c r="I65" s="135"/>
+      <c r="C65" s="134"/>
+      <c r="D65" s="134"/>
+      <c r="E65" s="134"/>
+      <c r="F65" s="134"/>
+      <c r="G65" s="134"/>
+      <c r="H65" s="134"/>
+      <c r="I65" s="134"/>
       <c r="K65" s="36"/>
       <c r="L65" s="33"/>
     </row>
@@ -4209,16 +4222,16 @@
         <f t="shared" si="0"/>
         <v>•</v>
       </c>
-      <c r="B66" s="135" t="s">
+      <c r="B66" s="134" t="s">
         <v>248</v>
       </c>
-      <c r="C66" s="135"/>
-      <c r="D66" s="135"/>
-      <c r="E66" s="135"/>
-      <c r="F66" s="135"/>
-      <c r="G66" s="135"/>
-      <c r="H66" s="135"/>
-      <c r="I66" s="135"/>
+      <c r="C66" s="134"/>
+      <c r="D66" s="134"/>
+      <c r="E66" s="134"/>
+      <c r="F66" s="134"/>
+      <c r="G66" s="134"/>
+      <c r="H66" s="134"/>
+      <c r="I66" s="134"/>
       <c r="K66" s="11"/>
       <c r="L66" s="11"/>
       <c r="Q66" s="43"/>
@@ -4239,29 +4252,29 @@
       <c r="V67" s="43"/>
     </row>
     <row r="68" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="135" t="s">
+      <c r="A68" s="134" t="s">
         <v>245</v>
       </c>
-      <c r="B68" s="135"/>
-      <c r="C68" s="135"/>
-      <c r="D68" s="135"/>
-      <c r="E68" s="135"/>
-      <c r="F68" s="135"/>
-      <c r="G68" s="135"/>
-      <c r="H68" s="135"/>
-      <c r="I68" s="135"/>
+      <c r="B68" s="134"/>
+      <c r="C68" s="134"/>
+      <c r="D68" s="134"/>
+      <c r="E68" s="134"/>
+      <c r="F68" s="134"/>
+      <c r="G68" s="134"/>
+      <c r="H68" s="134"/>
+      <c r="I68" s="134"/>
       <c r="W68" s="43"/>
     </row>
     <row r="69" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="135"/>
-      <c r="B69" s="135"/>
-      <c r="C69" s="135"/>
-      <c r="D69" s="135"/>
-      <c r="E69" s="135"/>
-      <c r="F69" s="135"/>
-      <c r="G69" s="135"/>
-      <c r="H69" s="135"/>
-      <c r="I69" s="135"/>
+      <c r="A69" s="134"/>
+      <c r="B69" s="134"/>
+      <c r="C69" s="134"/>
+      <c r="D69" s="134"/>
+      <c r="E69" s="134"/>
+      <c r="F69" s="134"/>
+      <c r="G69" s="134"/>
+      <c r="H69" s="134"/>
+      <c r="I69" s="134"/>
       <c r="M69" s="35"/>
       <c r="W69" s="43"/>
     </row>
@@ -4410,24 +4423,24 @@
       </c>
     </row>
     <row r="86" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="135"/>
-      <c r="C86" s="135"/>
-      <c r="D86" s="135"/>
-      <c r="E86" s="135"/>
-      <c r="F86" s="135"/>
-      <c r="G86" s="135"/>
-      <c r="H86" s="135"/>
-      <c r="I86" s="135"/>
+      <c r="B86" s="134"/>
+      <c r="C86" s="134"/>
+      <c r="D86" s="134"/>
+      <c r="E86" s="134"/>
+      <c r="F86" s="134"/>
+      <c r="G86" s="134"/>
+      <c r="H86" s="134"/>
+      <c r="I86" s="134"/>
     </row>
     <row r="87" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="135"/>
-      <c r="C87" s="135"/>
-      <c r="D87" s="135"/>
-      <c r="E87" s="135"/>
-      <c r="F87" s="135"/>
-      <c r="G87" s="135"/>
-      <c r="H87" s="135"/>
-      <c r="I87" s="135"/>
+      <c r="B87" s="134"/>
+      <c r="C87" s="134"/>
+      <c r="D87" s="134"/>
+      <c r="E87" s="134"/>
+      <c r="F87" s="134"/>
+      <c r="G87" s="134"/>
+      <c r="H87" s="134"/>
+      <c r="I87" s="134"/>
     </row>
     <row r="88" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="89" spans="1:18" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4476,16 +4489,16 @@
     </row>
     <row r="91" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
-      <c r="B91" s="135" t="s">
+      <c r="B91" s="134" t="s">
         <v>249</v>
       </c>
-      <c r="C91" s="135"/>
-      <c r="D91" s="135"/>
-      <c r="E91" s="135"/>
-      <c r="F91" s="135"/>
-      <c r="G91" s="135"/>
-      <c r="H91" s="135"/>
-      <c r="I91" s="135"/>
+      <c r="C91" s="134"/>
+      <c r="D91" s="134"/>
+      <c r="E91" s="134"/>
+      <c r="F91" s="134"/>
+      <c r="G91" s="134"/>
+      <c r="H91" s="134"/>
+      <c r="I91" s="134"/>
       <c r="L91" s="36"/>
       <c r="M91" s="36"/>
       <c r="N91" s="36"/>
@@ -4494,25 +4507,25 @@
     </row>
     <row r="92" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
-      <c r="B92" s="135"/>
-      <c r="C92" s="135"/>
-      <c r="D92" s="135"/>
-      <c r="E92" s="135"/>
-      <c r="F92" s="135"/>
-      <c r="G92" s="135"/>
-      <c r="H92" s="135"/>
-      <c r="I92" s="135"/>
+      <c r="B92" s="134"/>
+      <c r="C92" s="134"/>
+      <c r="D92" s="134"/>
+      <c r="E92" s="134"/>
+      <c r="F92" s="134"/>
+      <c r="G92" s="134"/>
+      <c r="H92" s="134"/>
+      <c r="I92" s="134"/>
     </row>
     <row r="93" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
-      <c r="B93" s="135"/>
-      <c r="C93" s="135"/>
-      <c r="D93" s="135"/>
-      <c r="E93" s="135"/>
-      <c r="F93" s="135"/>
-      <c r="G93" s="135"/>
-      <c r="H93" s="135"/>
-      <c r="I93" s="135"/>
+      <c r="B93" s="134"/>
+      <c r="C93" s="134"/>
+      <c r="D93" s="134"/>
+      <c r="E93" s="134"/>
+      <c r="F93" s="134"/>
+      <c r="G93" s="134"/>
+      <c r="H93" s="134"/>
+      <c r="I93" s="134"/>
     </row>
     <row r="94" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
@@ -5542,16 +5555,16 @@
         <f t="shared" si="2"/>
         <v>•</v>
       </c>
-      <c r="M185" s="135" t="s">
+      <c r="M185" s="134" t="s">
         <v>278</v>
       </c>
-      <c r="N185" s="135"/>
-      <c r="O185" s="135"/>
-      <c r="P185" s="135"/>
-      <c r="Q185" s="135"/>
-      <c r="R185" s="135"/>
-      <c r="S185" s="135"/>
-      <c r="T185" s="135"/>
+      <c r="N185" s="134"/>
+      <c r="O185" s="134"/>
+      <c r="P185" s="134"/>
+      <c r="Q185" s="134"/>
+      <c r="R185" s="134"/>
+      <c r="S185" s="134"/>
+      <c r="T185" s="134"/>
     </row>
     <row r="186" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="31"/>
@@ -6180,16 +6193,16 @@
     </row>
     <row r="225" spans="1:24" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="60"/>
-      <c r="B225" s="135" t="s">
+      <c r="B225" s="134" t="s">
         <v>277</v>
       </c>
-      <c r="C225" s="135"/>
-      <c r="D225" s="135"/>
-      <c r="E225" s="135"/>
-      <c r="F225" s="135"/>
-      <c r="G225" s="135"/>
-      <c r="H225" s="135"/>
-      <c r="I225" s="135"/>
+      <c r="C225" s="134"/>
+      <c r="D225" s="134"/>
+      <c r="E225" s="134"/>
+      <c r="F225" s="134"/>
+      <c r="G225" s="134"/>
+      <c r="H225" s="134"/>
+      <c r="I225" s="134"/>
       <c r="K225" s="59"/>
       <c r="N225" s="42"/>
       <c r="O225" s="42"/>
@@ -6197,14 +6210,14 @@
     </row>
     <row r="226" spans="1:24" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="60"/>
-      <c r="B226" s="135"/>
-      <c r="C226" s="135"/>
-      <c r="D226" s="135"/>
-      <c r="E226" s="135"/>
-      <c r="F226" s="135"/>
-      <c r="G226" s="135"/>
-      <c r="H226" s="135"/>
-      <c r="I226" s="135"/>
+      <c r="B226" s="134"/>
+      <c r="C226" s="134"/>
+      <c r="D226" s="134"/>
+      <c r="E226" s="134"/>
+      <c r="F226" s="134"/>
+      <c r="G226" s="134"/>
+      <c r="H226" s="134"/>
+      <c r="I226" s="134"/>
       <c r="K226" s="59"/>
       <c r="M226" s="42"/>
       <c r="N226" s="42"/>
@@ -6213,14 +6226,14 @@
     </row>
     <row r="227" spans="1:24" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="60"/>
-      <c r="B227" s="135"/>
-      <c r="C227" s="135"/>
-      <c r="D227" s="135"/>
-      <c r="E227" s="135"/>
-      <c r="F227" s="135"/>
-      <c r="G227" s="135"/>
-      <c r="H227" s="135"/>
-      <c r="I227" s="135"/>
+      <c r="B227" s="134"/>
+      <c r="C227" s="134"/>
+      <c r="D227" s="134"/>
+      <c r="E227" s="134"/>
+      <c r="F227" s="134"/>
+      <c r="G227" s="134"/>
+      <c r="H227" s="134"/>
+      <c r="I227" s="134"/>
       <c r="K227" s="59"/>
       <c r="M227" s="42"/>
       <c r="N227" s="42"/>
@@ -6229,14 +6242,14 @@
     </row>
     <row r="228" spans="1:24" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="60"/>
-      <c r="B228" s="135"/>
-      <c r="C228" s="135"/>
-      <c r="D228" s="135"/>
-      <c r="E228" s="135"/>
-      <c r="F228" s="135"/>
-      <c r="G228" s="135"/>
-      <c r="H228" s="135"/>
-      <c r="I228" s="135"/>
+      <c r="B228" s="134"/>
+      <c r="C228" s="134"/>
+      <c r="D228" s="134"/>
+      <c r="E228" s="134"/>
+      <c r="F228" s="134"/>
+      <c r="G228" s="134"/>
+      <c r="H228" s="134"/>
+      <c r="I228" s="134"/>
       <c r="K228" s="59"/>
       <c r="M228" s="42"/>
       <c r="N228" s="42"/>
@@ -6279,16 +6292,16 @@
     </row>
     <row r="231" spans="1:24" s="16" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="60"/>
-      <c r="B231" s="135" t="s">
+      <c r="B231" s="134" t="s">
         <v>220</v>
       </c>
-      <c r="C231" s="135"/>
-      <c r="D231" s="135"/>
-      <c r="E231" s="135"/>
-      <c r="F231" s="135"/>
-      <c r="G231" s="135"/>
-      <c r="H231" s="135"/>
-      <c r="I231" s="135"/>
+      <c r="C231" s="134"/>
+      <c r="D231" s="134"/>
+      <c r="E231" s="134"/>
+      <c r="F231" s="134"/>
+      <c r="G231" s="134"/>
+      <c r="H231" s="134"/>
+      <c r="I231" s="134"/>
       <c r="K231" s="59"/>
       <c r="M231" s="42"/>
       <c r="N231" s="42"/>
@@ -6297,14 +6310,14 @@
     </row>
     <row r="232" spans="1:24" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="60"/>
-      <c r="B232" s="135"/>
-      <c r="C232" s="135"/>
-      <c r="D232" s="135"/>
-      <c r="E232" s="135"/>
-      <c r="F232" s="135"/>
-      <c r="G232" s="135"/>
-      <c r="H232" s="135"/>
-      <c r="I232" s="135"/>
+      <c r="B232" s="134"/>
+      <c r="C232" s="134"/>
+      <c r="D232" s="134"/>
+      <c r="E232" s="134"/>
+      <c r="F232" s="134"/>
+      <c r="G232" s="134"/>
+      <c r="H232" s="134"/>
+      <c r="I232" s="134"/>
       <c r="K232" s="59" t="s">
         <v>217</v>
       </c>
@@ -6763,14 +6776,14 @@
         <v>142</v>
       </c>
       <c r="C258" s="77"/>
-      <c r="D258" s="146" t="s">
+      <c r="D258" s="145" t="s">
         <v>143</v>
       </c>
-      <c r="E258" s="146"/>
-      <c r="F258" s="146" t="s">
+      <c r="E258" s="145"/>
+      <c r="F258" s="145" t="s">
         <v>144</v>
       </c>
-      <c r="G258" s="146"/>
+      <c r="G258" s="145"/>
       <c r="H258" s="29"/>
       <c r="O258" s="25"/>
       <c r="P258" s="29"/>
@@ -6784,10 +6797,10 @@
         <v>139</v>
       </c>
       <c r="E259" s="132"/>
-      <c r="F259" s="147">
+      <c r="F259" s="146">
         <v>10000000</v>
       </c>
-      <c r="G259" s="147"/>
+      <c r="G259" s="146"/>
       <c r="H259" s="48"/>
       <c r="I259" s="25"/>
       <c r="O259" s="47"/>
@@ -6802,10 +6815,10 @@
         <v>141</v>
       </c>
       <c r="E260" s="132"/>
-      <c r="F260" s="147">
+      <c r="F260" s="146">
         <v>20000000</v>
       </c>
-      <c r="G260" s="147"/>
+      <c r="G260" s="146"/>
       <c r="H260" s="48"/>
       <c r="O260" s="47"/>
       <c r="P260" s="66"/>
@@ -6874,16 +6887,16 @@
     </row>
     <row r="264" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1"/>
-      <c r="B264" s="135" t="s">
+      <c r="B264" s="134" t="s">
         <v>203</v>
       </c>
-      <c r="C264" s="135"/>
-      <c r="D264" s="135"/>
-      <c r="E264" s="135"/>
-      <c r="F264" s="135"/>
-      <c r="G264" s="135"/>
-      <c r="H264" s="135"/>
-      <c r="I264" s="135"/>
+      <c r="C264" s="134"/>
+      <c r="D264" s="134"/>
+      <c r="E264" s="134"/>
+      <c r="F264" s="134"/>
+      <c r="G264" s="134"/>
+      <c r="H264" s="134"/>
+      <c r="I264" s="134"/>
       <c r="P264" s="66"/>
       <c r="Q264" s="35"/>
       <c r="R264" s="35"/>
@@ -6892,39 +6905,39 @@
     </row>
     <row r="265" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1"/>
-      <c r="B265" s="135"/>
-      <c r="C265" s="135"/>
-      <c r="D265" s="135"/>
-      <c r="E265" s="135"/>
-      <c r="F265" s="135"/>
-      <c r="G265" s="135"/>
-      <c r="H265" s="135"/>
-      <c r="I265" s="135"/>
+      <c r="B265" s="134"/>
+      <c r="C265" s="134"/>
+      <c r="D265" s="134"/>
+      <c r="E265" s="134"/>
+      <c r="F265" s="134"/>
+      <c r="G265" s="134"/>
+      <c r="H265" s="134"/>
+      <c r="I265" s="134"/>
       <c r="P265" s="66"/>
     </row>
     <row r="266" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1"/>
-      <c r="B266" s="135"/>
-      <c r="C266" s="135"/>
-      <c r="D266" s="135"/>
-      <c r="E266" s="135"/>
-      <c r="F266" s="135"/>
-      <c r="G266" s="135"/>
-      <c r="H266" s="135"/>
-      <c r="I266" s="135"/>
+      <c r="B266" s="134"/>
+      <c r="C266" s="134"/>
+      <c r="D266" s="134"/>
+      <c r="E266" s="134"/>
+      <c r="F266" s="134"/>
+      <c r="G266" s="134"/>
+      <c r="H266" s="134"/>
+      <c r="I266" s="134"/>
       <c r="P266" s="66"/>
       <c r="S266" s="34"/>
     </row>
     <row r="267" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1"/>
-      <c r="B267" s="135"/>
-      <c r="C267" s="135"/>
-      <c r="D267" s="135"/>
-      <c r="E267" s="135"/>
-      <c r="F267" s="135"/>
-      <c r="G267" s="135"/>
-      <c r="H267" s="135"/>
-      <c r="I267" s="135"/>
+      <c r="B267" s="134"/>
+      <c r="C267" s="134"/>
+      <c r="D267" s="134"/>
+      <c r="E267" s="134"/>
+      <c r="F267" s="134"/>
+      <c r="G267" s="134"/>
+      <c r="H267" s="134"/>
+      <c r="I267" s="134"/>
       <c r="P267" s="66"/>
       <c r="Q267" s="16"/>
       <c r="R267" s="16"/>
@@ -6970,30 +6983,30 @@
       <c r="P269" s="42"/>
     </row>
     <row r="270" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B270" s="135" t="s">
+      <c r="B270" s="134" t="s">
         <v>73</v>
       </c>
-      <c r="C270" s="135"/>
-      <c r="D270" s="135"/>
-      <c r="E270" s="135"/>
-      <c r="F270" s="135"/>
-      <c r="G270" s="135"/>
-      <c r="H270" s="135"/>
-      <c r="I270" s="135"/>
+      <c r="C270" s="134"/>
+      <c r="D270" s="134"/>
+      <c r="E270" s="134"/>
+      <c r="F270" s="134"/>
+      <c r="G270" s="134"/>
+      <c r="H270" s="134"/>
+      <c r="I270" s="134"/>
     </row>
     <row r="271" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B271" s="135"/>
-      <c r="C271" s="135"/>
-      <c r="D271" s="135"/>
-      <c r="E271" s="135"/>
-      <c r="F271" s="135"/>
-      <c r="G271" s="135"/>
-      <c r="H271" s="135"/>
-      <c r="I271" s="135"/>
+      <c r="B271" s="134"/>
+      <c r="C271" s="134"/>
+      <c r="D271" s="134"/>
+      <c r="E271" s="134"/>
+      <c r="F271" s="134"/>
+      <c r="G271" s="134"/>
+      <c r="H271" s="134"/>
+      <c r="I271" s="134"/>
     </row>
     <row r="272" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B272" s="122" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C272" s="122"/>
       <c r="D272" s="123"/>
@@ -7001,7 +7014,7 @@
       <c r="F272" s="123"/>
       <c r="G272" s="124"/>
       <c r="H272" s="122" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I272" s="25"/>
       <c r="L272" s="59"/>
@@ -7057,7 +7070,7 @@
     </row>
     <row r="276" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B276" s="118" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C276" s="118"/>
       <c r="D276" s="129"/>
@@ -7074,7 +7087,7 @@
     </row>
     <row r="277" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B277" s="119" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C277" s="119"/>
       <c r="D277" s="119"/>
@@ -7091,7 +7104,7 @@
     </row>
     <row r="278" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B278" s="119" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C278" s="119"/>
       <c r="D278" s="119"/>
@@ -7152,28 +7165,28 @@
       <c r="P281" s="66"/>
     </row>
     <row r="282" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B282" s="135" t="s">
+      <c r="B282" s="134" t="s">
         <v>78</v>
       </c>
-      <c r="C282" s="135"/>
-      <c r="D282" s="135"/>
-      <c r="E282" s="135"/>
-      <c r="F282" s="135"/>
-      <c r="G282" s="135"/>
-      <c r="H282" s="135"/>
-      <c r="I282" s="135"/>
+      <c r="C282" s="134"/>
+      <c r="D282" s="134"/>
+      <c r="E282" s="134"/>
+      <c r="F282" s="134"/>
+      <c r="G282" s="134"/>
+      <c r="H282" s="134"/>
+      <c r="I282" s="134"/>
       <c r="P282" s="66"/>
     </row>
     <row r="283" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A283" s="46"/>
-      <c r="B283" s="135"/>
-      <c r="C283" s="135"/>
-      <c r="D283" s="135"/>
-      <c r="E283" s="135"/>
-      <c r="F283" s="135"/>
-      <c r="G283" s="135"/>
-      <c r="H283" s="135"/>
-      <c r="I283" s="135"/>
+      <c r="B283" s="134"/>
+      <c r="C283" s="134"/>
+      <c r="D283" s="134"/>
+      <c r="E283" s="134"/>
+      <c r="F283" s="134"/>
+      <c r="G283" s="134"/>
+      <c r="H283" s="134"/>
+      <c r="I283" s="134"/>
       <c r="P283" s="66"/>
     </row>
     <row r="284" spans="1:16" x14ac:dyDescent="0.25">
@@ -7344,7 +7357,9 @@
       <c r="K296" s="45"/>
     </row>
     <row r="297" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B297" s="35"/>
+      <c r="B297" s="35" t="s">
+        <v>286</v>
+      </c>
       <c r="K297" s="45"/>
     </row>
     <row r="298" spans="1:16" x14ac:dyDescent="0.25">
@@ -7417,7 +7432,7 @@
       </c>
       <c r="F309" s="140">
         <f ca="1">TODAY()</f>
-        <v>45315</v>
+        <v>45329</v>
       </c>
       <c r="G309" s="140"/>
       <c r="K309" s="45"/>
@@ -8075,11 +8090,8 @@
     </row>
   </sheetData>
   <mergeCells count="105">
-    <mergeCell ref="H272:H273"/>
     <mergeCell ref="K46:L46"/>
     <mergeCell ref="A56:I59"/>
-    <mergeCell ref="B239:I239"/>
-    <mergeCell ref="B231:I232"/>
     <mergeCell ref="B264:I267"/>
     <mergeCell ref="B252:I252"/>
     <mergeCell ref="B270:I271"/>
@@ -8088,8 +8100,6 @@
     <mergeCell ref="F260:G260"/>
     <mergeCell ref="D258:E258"/>
     <mergeCell ref="D259:E259"/>
-    <mergeCell ref="M56:T59"/>
-    <mergeCell ref="H46:I46"/>
     <mergeCell ref="M192:T192"/>
     <mergeCell ref="M134:T134"/>
     <mergeCell ref="M181:T181"/>
@@ -8102,8 +8112,8 @@
     <mergeCell ref="B86:I87"/>
     <mergeCell ref="B63:I63"/>
     <mergeCell ref="B65:I65"/>
-    <mergeCell ref="A51:I51"/>
     <mergeCell ref="A53:I54"/>
+    <mergeCell ref="M56:T59"/>
     <mergeCell ref="B356:I356"/>
     <mergeCell ref="B345:I345"/>
     <mergeCell ref="B346:I346"/>
@@ -8129,6 +8139,7 @@
     <mergeCell ref="B341:I341"/>
     <mergeCell ref="B342:I342"/>
     <mergeCell ref="B343:I343"/>
+    <mergeCell ref="B27:H29"/>
     <mergeCell ref="F309:G309"/>
     <mergeCell ref="B282:I283"/>
     <mergeCell ref="B330:I330"/>
@@ -8150,10 +8161,11 @@
     <mergeCell ref="B314:I314"/>
     <mergeCell ref="B315:I315"/>
     <mergeCell ref="B316:I316"/>
+    <mergeCell ref="H272:H273"/>
+    <mergeCell ref="B239:I239"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="D260:E260"/>
     <mergeCell ref="B257:I257"/>
-    <mergeCell ref="B27:H27"/>
     <mergeCell ref="B64:I64"/>
     <mergeCell ref="B225:I228"/>
     <mergeCell ref="A61:I62"/>
@@ -8166,6 +8178,9 @@
     <mergeCell ref="F41:I41"/>
     <mergeCell ref="F37:I37"/>
     <mergeCell ref="H45:I45"/>
+    <mergeCell ref="B231:I232"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="A51:I51"/>
     <mergeCell ref="B276:C276"/>
     <mergeCell ref="B277:G277"/>
     <mergeCell ref="B278:G278"/>
@@ -8307,7 +8322,7 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H9" s="23">
         <f ca="1">TODAY()</f>
-        <v>45315</v>
+        <v>45329</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9109,16 +9124,16 @@
       <c r="B24" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="144" t="s">
+      <c r="C24" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="D24" s="144"/>
-      <c r="E24" s="144"/>
-      <c r="F24" s="144"/>
-      <c r="G24" s="144"/>
-      <c r="H24" s="144"/>
-      <c r="I24" s="144"/>
-      <c r="J24" s="144"/>
+      <c r="D24" s="143"/>
+      <c r="E24" s="143"/>
+      <c r="F24" s="143"/>
+      <c r="G24" s="143"/>
+      <c r="H24" s="143"/>
+      <c r="I24" s="143"/>
+      <c r="J24" s="143"/>
     </row>
     <row r="26" spans="2:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37" t="s">
@@ -9149,10 +9164,10 @@
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C28" s="207"/>
       <c r="D28" s="212"/>
-      <c r="E28" s="135"/>
-      <c r="F28" s="135"/>
-      <c r="G28" s="135"/>
-      <c r="H28" s="135"/>
+      <c r="E28" s="134"/>
+      <c r="F28" s="134"/>
+      <c r="G28" s="134"/>
+      <c r="H28" s="134"/>
       <c r="I28" s="213"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
@@ -9180,10 +9195,10 @@
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C31" s="207"/>
       <c r="D31" s="212"/>
-      <c r="E31" s="135"/>
-      <c r="F31" s="135"/>
-      <c r="G31" s="135"/>
-      <c r="H31" s="135"/>
+      <c r="E31" s="134"/>
+      <c r="F31" s="134"/>
+      <c r="G31" s="134"/>
+      <c r="H31" s="134"/>
       <c r="I31" s="213"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
@@ -9211,10 +9226,10 @@
     <row r="34" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C34" s="207"/>
       <c r="D34" s="212"/>
-      <c r="E34" s="135"/>
-      <c r="F34" s="135"/>
-      <c r="G34" s="135"/>
-      <c r="H34" s="135"/>
+      <c r="E34" s="134"/>
+      <c r="F34" s="134"/>
+      <c r="G34" s="134"/>
+      <c r="H34" s="134"/>
       <c r="I34" s="213"/>
     </row>
     <row r="35" spans="3:19" x14ac:dyDescent="0.25">
@@ -9242,10 +9257,10 @@
     <row r="37" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C37" s="207"/>
       <c r="D37" s="212"/>
-      <c r="E37" s="135"/>
-      <c r="F37" s="135"/>
-      <c r="G37" s="135"/>
-      <c r="H37" s="135"/>
+      <c r="E37" s="134"/>
+      <c r="F37" s="134"/>
+      <c r="G37" s="134"/>
+      <c r="H37" s="134"/>
       <c r="I37" s="213"/>
     </row>
     <row r="38" spans="3:19" x14ac:dyDescent="0.25">
@@ -9261,31 +9276,31 @@
       <c r="K39" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="L39" s="144" t="s">
+      <c r="L39" s="143" t="s">
         <v>128</v>
       </c>
-      <c r="M39" s="144"/>
-      <c r="N39" s="144"/>
-      <c r="O39" s="144"/>
-      <c r="P39" s="144"/>
-      <c r="Q39" s="144"/>
-      <c r="R39" s="144"/>
-      <c r="S39" s="144"/>
+      <c r="M39" s="143"/>
+      <c r="N39" s="143"/>
+      <c r="O39" s="143"/>
+      <c r="P39" s="143"/>
+      <c r="Q39" s="143"/>
+      <c r="R39" s="143"/>
+      <c r="S39" s="143"/>
     </row>
     <row r="42" spans="3:19" x14ac:dyDescent="0.25">
       <c r="K42" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="L42" s="144" t="s">
+      <c r="L42" s="143" t="s">
         <v>129</v>
       </c>
-      <c r="M42" s="144"/>
-      <c r="N42" s="144"/>
-      <c r="O42" s="144"/>
-      <c r="P42" s="144"/>
-      <c r="Q42" s="144"/>
-      <c r="R42" s="144"/>
-      <c r="S42" s="144"/>
+      <c r="M42" s="143"/>
+      <c r="N42" s="143"/>
+      <c r="O42" s="143"/>
+      <c r="P42" s="143"/>
+      <c r="Q42" s="143"/>
+      <c r="R42" s="143"/>
+      <c r="S42" s="143"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G50" s="34" t="s">
@@ -9326,16 +9341,16 @@
       <c r="B56" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="135" t="s">
+      <c r="C56" s="134" t="s">
         <v>105</v>
       </c>
-      <c r="D56" s="135"/>
-      <c r="E56" s="135"/>
-      <c r="F56" s="135"/>
-      <c r="G56" s="135"/>
-      <c r="H56" s="135"/>
-      <c r="I56" s="135"/>
-      <c r="J56" s="135"/>
+      <c r="D56" s="134"/>
+      <c r="E56" s="134"/>
+      <c r="F56" s="134"/>
+      <c r="G56" s="134"/>
+      <c r="H56" s="134"/>
+      <c r="I56" s="134"/>
+      <c r="J56" s="134"/>
     </row>
     <row r="58" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37" t="s">
@@ -9432,10 +9447,10 @@
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C66" s="207"/>
       <c r="D66" s="212"/>
-      <c r="E66" s="135"/>
-      <c r="F66" s="135"/>
-      <c r="G66" s="135"/>
-      <c r="H66" s="135"/>
+      <c r="E66" s="134"/>
+      <c r="F66" s="134"/>
+      <c r="G66" s="134"/>
+      <c r="H66" s="134"/>
       <c r="I66" s="213"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
@@ -9463,10 +9478,10 @@
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C69" s="207"/>
       <c r="D69" s="212"/>
-      <c r="E69" s="135"/>
-      <c r="F69" s="135"/>
-      <c r="G69" s="135"/>
-      <c r="H69" s="135"/>
+      <c r="E69" s="134"/>
+      <c r="F69" s="134"/>
+      <c r="G69" s="134"/>
+      <c r="H69" s="134"/>
       <c r="I69" s="213"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
@@ -9561,7 +9576,7 @@
       </c>
       <c r="G91" s="224">
         <f ca="1">TODAY()</f>
-        <v>45315</v>
+        <v>45329</v>
       </c>
       <c r="H91" s="224"/>
       <c r="I91" s="224"/>
@@ -9857,16 +9872,16 @@
       <c r="B24" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="144" t="s">
+      <c r="C24" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="D24" s="144"/>
-      <c r="E24" s="144"/>
-      <c r="F24" s="144"/>
-      <c r="G24" s="144"/>
-      <c r="H24" s="144"/>
-      <c r="I24" s="144"/>
-      <c r="J24" s="144"/>
+      <c r="D24" s="143"/>
+      <c r="E24" s="143"/>
+      <c r="F24" s="143"/>
+      <c r="G24" s="143"/>
+      <c r="H24" s="143"/>
+      <c r="I24" s="143"/>
+      <c r="J24" s="143"/>
     </row>
     <row r="26" spans="2:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37" t="s">
@@ -10044,16 +10059,16 @@
       <c r="B56" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="135" t="s">
+      <c r="C56" s="134" t="s">
         <v>105</v>
       </c>
-      <c r="D56" s="135"/>
-      <c r="E56" s="135"/>
-      <c r="F56" s="135"/>
-      <c r="G56" s="135"/>
-      <c r="H56" s="135"/>
-      <c r="I56" s="135"/>
-      <c r="J56" s="135"/>
+      <c r="D56" s="134"/>
+      <c r="E56" s="134"/>
+      <c r="F56" s="134"/>
+      <c r="G56" s="134"/>
+      <c r="H56" s="134"/>
+      <c r="I56" s="134"/>
+      <c r="J56" s="134"/>
     </row>
     <row r="58" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37" t="s">
@@ -10277,7 +10292,7 @@
       </c>
       <c r="G91" s="224">
         <f ca="1">TODAY()</f>
-        <v>45315</v>
+        <v>45329</v>
       </c>
       <c r="H91" s="224"/>
       <c r="I91" s="224"/>
@@ -10359,7 +10374,7 @@
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <f ca="1">TODAY()</f>
-        <v>45315</v>
+        <v>45329</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -10836,116 +10851,116 @@
       <c r="H79" s="236"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="135" t="s">
+      <c r="A81" s="134" t="s">
         <v>82</v>
       </c>
-      <c r="B81" s="135"/>
-      <c r="C81" s="135"/>
-      <c r="D81" s="135"/>
-      <c r="E81" s="135"/>
-      <c r="F81" s="135"/>
-      <c r="G81" s="135"/>
-      <c r="H81" s="135"/>
-      <c r="I81" s="135"/>
+      <c r="B81" s="134"/>
+      <c r="C81" s="134"/>
+      <c r="D81" s="134"/>
+      <c r="E81" s="134"/>
+      <c r="F81" s="134"/>
+      <c r="G81" s="134"/>
+      <c r="H81" s="134"/>
+      <c r="I81" s="134"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="135"/>
-      <c r="B82" s="135"/>
-      <c r="C82" s="135"/>
-      <c r="D82" s="135"/>
-      <c r="E82" s="135"/>
-      <c r="F82" s="135"/>
-      <c r="G82" s="135"/>
-      <c r="H82" s="135"/>
-      <c r="I82" s="135"/>
+      <c r="A82" s="134"/>
+      <c r="B82" s="134"/>
+      <c r="C82" s="134"/>
+      <c r="D82" s="134"/>
+      <c r="E82" s="134"/>
+      <c r="F82" s="134"/>
+      <c r="G82" s="134"/>
+      <c r="H82" s="134"/>
+      <c r="I82" s="134"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="135"/>
-      <c r="B83" s="135"/>
-      <c r="C83" s="135"/>
-      <c r="D83" s="135"/>
-      <c r="E83" s="135"/>
-      <c r="F83" s="135"/>
-      <c r="G83" s="135"/>
-      <c r="H83" s="135"/>
-      <c r="I83" s="135"/>
+      <c r="A83" s="134"/>
+      <c r="B83" s="134"/>
+      <c r="C83" s="134"/>
+      <c r="D83" s="134"/>
+      <c r="E83" s="134"/>
+      <c r="F83" s="134"/>
+      <c r="G83" s="134"/>
+      <c r="H83" s="134"/>
+      <c r="I83" s="134"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="135"/>
-      <c r="B84" s="135"/>
-      <c r="C84" s="135"/>
-      <c r="D84" s="135"/>
-      <c r="E84" s="135"/>
-      <c r="F84" s="135"/>
-      <c r="G84" s="135"/>
-      <c r="H84" s="135"/>
-      <c r="I84" s="135"/>
+      <c r="A84" s="134"/>
+      <c r="B84" s="134"/>
+      <c r="C84" s="134"/>
+      <c r="D84" s="134"/>
+      <c r="E84" s="134"/>
+      <c r="F84" s="134"/>
+      <c r="G84" s="134"/>
+      <c r="H84" s="134"/>
+      <c r="I84" s="134"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="135"/>
-      <c r="B85" s="135"/>
-      <c r="C85" s="135"/>
-      <c r="D85" s="135"/>
-      <c r="E85" s="135"/>
-      <c r="F85" s="135"/>
-      <c r="G85" s="135"/>
-      <c r="H85" s="135"/>
-      <c r="I85" s="135"/>
+      <c r="A85" s="134"/>
+      <c r="B85" s="134"/>
+      <c r="C85" s="134"/>
+      <c r="D85" s="134"/>
+      <c r="E85" s="134"/>
+      <c r="F85" s="134"/>
+      <c r="G85" s="134"/>
+      <c r="H85" s="134"/>
+      <c r="I85" s="134"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="135"/>
-      <c r="B86" s="135"/>
-      <c r="C86" s="135"/>
-      <c r="D86" s="135"/>
-      <c r="E86" s="135"/>
-      <c r="F86" s="135"/>
-      <c r="G86" s="135"/>
-      <c r="H86" s="135"/>
-      <c r="I86" s="135"/>
+      <c r="A86" s="134"/>
+      <c r="B86" s="134"/>
+      <c r="C86" s="134"/>
+      <c r="D86" s="134"/>
+      <c r="E86" s="134"/>
+      <c r="F86" s="134"/>
+      <c r="G86" s="134"/>
+      <c r="H86" s="134"/>
+      <c r="I86" s="134"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="135"/>
-      <c r="B87" s="135"/>
-      <c r="C87" s="135"/>
-      <c r="D87" s="135"/>
-      <c r="E87" s="135"/>
-      <c r="F87" s="135"/>
-      <c r="G87" s="135"/>
-      <c r="H87" s="135"/>
-      <c r="I87" s="135"/>
+      <c r="A87" s="134"/>
+      <c r="B87" s="134"/>
+      <c r="C87" s="134"/>
+      <c r="D87" s="134"/>
+      <c r="E87" s="134"/>
+      <c r="F87" s="134"/>
+      <c r="G87" s="134"/>
+      <c r="H87" s="134"/>
+      <c r="I87" s="134"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="135"/>
-      <c r="B88" s="135"/>
-      <c r="C88" s="135"/>
-      <c r="D88" s="135"/>
-      <c r="E88" s="135"/>
-      <c r="F88" s="135"/>
-      <c r="G88" s="135"/>
-      <c r="H88" s="135"/>
-      <c r="I88" s="135"/>
+      <c r="A88" s="134"/>
+      <c r="B88" s="134"/>
+      <c r="C88" s="134"/>
+      <c r="D88" s="134"/>
+      <c r="E88" s="134"/>
+      <c r="F88" s="134"/>
+      <c r="G88" s="134"/>
+      <c r="H88" s="134"/>
+      <c r="I88" s="134"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="135"/>
-      <c r="B89" s="135"/>
-      <c r="C89" s="135"/>
-      <c r="D89" s="135"/>
-      <c r="E89" s="135"/>
-      <c r="F89" s="135"/>
-      <c r="G89" s="135"/>
-      <c r="H89" s="135"/>
-      <c r="I89" s="135"/>
+      <c r="A89" s="134"/>
+      <c r="B89" s="134"/>
+      <c r="C89" s="134"/>
+      <c r="D89" s="134"/>
+      <c r="E89" s="134"/>
+      <c r="F89" s="134"/>
+      <c r="G89" s="134"/>
+      <c r="H89" s="134"/>
+      <c r="I89" s="134"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="135"/>
-      <c r="B90" s="135"/>
-      <c r="C90" s="135"/>
-      <c r="D90" s="135"/>
-      <c r="E90" s="135"/>
-      <c r="F90" s="135"/>
-      <c r="G90" s="135"/>
-      <c r="H90" s="135"/>
-      <c r="I90" s="135"/>
+      <c r="A90" s="134"/>
+      <c r="B90" s="134"/>
+      <c r="C90" s="134"/>
+      <c r="D90" s="134"/>
+      <c r="E90" s="134"/>
+      <c r="F90" s="134"/>
+      <c r="G90" s="134"/>
+      <c r="H90" s="134"/>
+      <c r="I90" s="134"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -10993,7 +11008,7 @@
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <f ca="1">TODAY()</f>
-        <v>45315</v>
+        <v>45329</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -11470,116 +11485,116 @@
       <c r="H79" s="236"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="135" t="s">
+      <c r="A81" s="134" t="s">
         <v>82</v>
       </c>
-      <c r="B81" s="135"/>
-      <c r="C81" s="135"/>
-      <c r="D81" s="135"/>
-      <c r="E81" s="135"/>
-      <c r="F81" s="135"/>
-      <c r="G81" s="135"/>
-      <c r="H81" s="135"/>
-      <c r="I81" s="135"/>
+      <c r="B81" s="134"/>
+      <c r="C81" s="134"/>
+      <c r="D81" s="134"/>
+      <c r="E81" s="134"/>
+      <c r="F81" s="134"/>
+      <c r="G81" s="134"/>
+      <c r="H81" s="134"/>
+      <c r="I81" s="134"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="135"/>
-      <c r="B82" s="135"/>
-      <c r="C82" s="135"/>
-      <c r="D82" s="135"/>
-      <c r="E82" s="135"/>
-      <c r="F82" s="135"/>
-      <c r="G82" s="135"/>
-      <c r="H82" s="135"/>
-      <c r="I82" s="135"/>
+      <c r="A82" s="134"/>
+      <c r="B82" s="134"/>
+      <c r="C82" s="134"/>
+      <c r="D82" s="134"/>
+      <c r="E82" s="134"/>
+      <c r="F82" s="134"/>
+      <c r="G82" s="134"/>
+      <c r="H82" s="134"/>
+      <c r="I82" s="134"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="135"/>
-      <c r="B83" s="135"/>
-      <c r="C83" s="135"/>
-      <c r="D83" s="135"/>
-      <c r="E83" s="135"/>
-      <c r="F83" s="135"/>
-      <c r="G83" s="135"/>
-      <c r="H83" s="135"/>
-      <c r="I83" s="135"/>
+      <c r="A83" s="134"/>
+      <c r="B83" s="134"/>
+      <c r="C83" s="134"/>
+      <c r="D83" s="134"/>
+      <c r="E83" s="134"/>
+      <c r="F83" s="134"/>
+      <c r="G83" s="134"/>
+      <c r="H83" s="134"/>
+      <c r="I83" s="134"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="135"/>
-      <c r="B84" s="135"/>
-      <c r="C84" s="135"/>
-      <c r="D84" s="135"/>
-      <c r="E84" s="135"/>
-      <c r="F84" s="135"/>
-      <c r="G84" s="135"/>
-      <c r="H84" s="135"/>
-      <c r="I84" s="135"/>
+      <c r="A84" s="134"/>
+      <c r="B84" s="134"/>
+      <c r="C84" s="134"/>
+      <c r="D84" s="134"/>
+      <c r="E84" s="134"/>
+      <c r="F84" s="134"/>
+      <c r="G84" s="134"/>
+      <c r="H84" s="134"/>
+      <c r="I84" s="134"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="135"/>
-      <c r="B85" s="135"/>
-      <c r="C85" s="135"/>
-      <c r="D85" s="135"/>
-      <c r="E85" s="135"/>
-      <c r="F85" s="135"/>
-      <c r="G85" s="135"/>
-      <c r="H85" s="135"/>
-      <c r="I85" s="135"/>
+      <c r="A85" s="134"/>
+      <c r="B85" s="134"/>
+      <c r="C85" s="134"/>
+      <c r="D85" s="134"/>
+      <c r="E85" s="134"/>
+      <c r="F85" s="134"/>
+      <c r="G85" s="134"/>
+      <c r="H85" s="134"/>
+      <c r="I85" s="134"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="135"/>
-      <c r="B86" s="135"/>
-      <c r="C86" s="135"/>
-      <c r="D86" s="135"/>
-      <c r="E86" s="135"/>
-      <c r="F86" s="135"/>
-      <c r="G86" s="135"/>
-      <c r="H86" s="135"/>
-      <c r="I86" s="135"/>
+      <c r="A86" s="134"/>
+      <c r="B86" s="134"/>
+      <c r="C86" s="134"/>
+      <c r="D86" s="134"/>
+      <c r="E86" s="134"/>
+      <c r="F86" s="134"/>
+      <c r="G86" s="134"/>
+      <c r="H86" s="134"/>
+      <c r="I86" s="134"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="135"/>
-      <c r="B87" s="135"/>
-      <c r="C87" s="135"/>
-      <c r="D87" s="135"/>
-      <c r="E87" s="135"/>
-      <c r="F87" s="135"/>
-      <c r="G87" s="135"/>
-      <c r="H87" s="135"/>
-      <c r="I87" s="135"/>
+      <c r="A87" s="134"/>
+      <c r="B87" s="134"/>
+      <c r="C87" s="134"/>
+      <c r="D87" s="134"/>
+      <c r="E87" s="134"/>
+      <c r="F87" s="134"/>
+      <c r="G87" s="134"/>
+      <c r="H87" s="134"/>
+      <c r="I87" s="134"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="135"/>
-      <c r="B88" s="135"/>
-      <c r="C88" s="135"/>
-      <c r="D88" s="135"/>
-      <c r="E88" s="135"/>
-      <c r="F88" s="135"/>
-      <c r="G88" s="135"/>
-      <c r="H88" s="135"/>
-      <c r="I88" s="135"/>
+      <c r="A88" s="134"/>
+      <c r="B88" s="134"/>
+      <c r="C88" s="134"/>
+      <c r="D88" s="134"/>
+      <c r="E88" s="134"/>
+      <c r="F88" s="134"/>
+      <c r="G88" s="134"/>
+      <c r="H88" s="134"/>
+      <c r="I88" s="134"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="135"/>
-      <c r="B89" s="135"/>
-      <c r="C89" s="135"/>
-      <c r="D89" s="135"/>
-      <c r="E89" s="135"/>
-      <c r="F89" s="135"/>
-      <c r="G89" s="135"/>
-      <c r="H89" s="135"/>
-      <c r="I89" s="135"/>
+      <c r="A89" s="134"/>
+      <c r="B89" s="134"/>
+      <c r="C89" s="134"/>
+      <c r="D89" s="134"/>
+      <c r="E89" s="134"/>
+      <c r="F89" s="134"/>
+      <c r="G89" s="134"/>
+      <c r="H89" s="134"/>
+      <c r="I89" s="134"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="135"/>
-      <c r="B90" s="135"/>
-      <c r="C90" s="135"/>
-      <c r="D90" s="135"/>
-      <c r="E90" s="135"/>
-      <c r="F90" s="135"/>
-      <c r="G90" s="135"/>
-      <c r="H90" s="135"/>
-      <c r="I90" s="135"/>
+      <c r="A90" s="134"/>
+      <c r="B90" s="134"/>
+      <c r="C90" s="134"/>
+      <c r="D90" s="134"/>
+      <c r="E90" s="134"/>
+      <c r="F90" s="134"/>
+      <c r="G90" s="134"/>
+      <c r="H90" s="134"/>
+      <c r="I90" s="134"/>
     </row>
   </sheetData>
   <mergeCells count="20">
